--- a/INPUT/test/example3.xlsx
+++ b/INPUT/test/example3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/INPUT/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0922A39-C62A-B547-9798-037D61DC6BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA684FF-AA53-8342-A21A-0EC4FD9EF5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="138">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>UUID</t>
-  </si>
-  <si>
-    <t>PROGRAMID</t>
   </si>
   <si>
     <t>TRANSITIONREF</t>
@@ -654,6 +651,10 @@
   </si>
   <si>
     <t>BBBBHPLC:plot_run_time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PARENTID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2574,18 +2575,18 @@
         <v>15</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -2596,60 +2597,60 @@
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -2658,16 +2659,16 @@
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -2688,8 +2689,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
@@ -2720,18 +2721,18 @@
         <v>15</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
@@ -2742,10 +2743,10 @@
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
@@ -2756,48 +2757,52 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="44"/>
+      <c r="G4" s="56" t="s">
+        <v>56</v>
+      </c>
       <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="44"/>
+      <c r="G5" s="56" t="s">
+        <v>56</v>
+      </c>
       <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A6" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="41"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2848,13 +2853,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2864,13 +2869,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2880,13 +2885,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>67</v>
-      </c>
       <c r="D4" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2896,13 +2901,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>135</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2912,7 +2917,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -2924,7 +2929,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2936,7 +2941,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2948,7 +2953,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2960,7 +2965,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3016,18 +3021,18 @@
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -3036,15 +3041,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -3099,15 +3104,15 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -3116,15 +3121,15 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -3141,7 +3146,7 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -3202,16 +3207,16 @@
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1">
       <c r="A2" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E2" s="57"/>
       <c r="F2" s="57"/>
@@ -3225,16 +3230,16 @@
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>78</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -3242,26 +3247,26 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
       <c r="J3" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" s="57"/>
       <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1">
       <c r="A4" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="57"/>
       <c r="F4" s="57"/>
@@ -3269,26 +3274,26 @@
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" s="57"/>
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1">
       <c r="A5" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="57"/>
@@ -3302,16 +3307,16 @@
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1">
       <c r="A6" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>111</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>112</v>
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
@@ -3319,7 +3324,7 @@
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
       <c r="J6" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K6" s="59"/>
       <c r="L6" s="57"/>
@@ -3327,16 +3332,16 @@
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E7" s="57"/>
       <c r="F7" s="57"/>
@@ -3350,16 +3355,16 @@
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
@@ -3367,7 +3372,7 @@
       <c r="H8" s="57"/>
       <c r="I8" s="57"/>
       <c r="J8" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K8" s="59"/>
       <c r="L8" s="57"/>
@@ -3375,16 +3380,16 @@
     </row>
     <row r="9" spans="1:13" ht="24" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
@@ -3392,7 +3397,7 @@
       <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K9" s="59"/>
       <c r="L9" s="57"/>
@@ -3400,26 +3405,26 @@
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1">
       <c r="A10" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="57" t="s">
         <v>116</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>117</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="58"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
       <c r="J10" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K10" s="59"/>
       <c r="L10" s="57"/>
@@ -3427,16 +3432,16 @@
     </row>
     <row r="11" spans="1:13" ht="24" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E11" s="57"/>
       <c r="F11" s="57"/>
@@ -3450,16 +3455,16 @@
     </row>
     <row r="12" spans="1:13" ht="24" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
@@ -3467,7 +3472,7 @@
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K12" s="59"/>
       <c r="L12" s="57"/>
@@ -3475,16 +3480,16 @@
     </row>
     <row r="13" spans="1:13" ht="24" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E13" s="57"/>
       <c r="F13" s="57"/>
@@ -3498,16 +3503,16 @@
     </row>
     <row r="14" spans="1:13" ht="24" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="57"/>
@@ -3515,7 +3520,7 @@
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
       <c r="J14" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K14" s="59"/>
       <c r="L14" s="57"/>
@@ -3523,26 +3528,26 @@
     </row>
     <row r="15" spans="1:13" ht="24" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="58"/>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="57"/>
@@ -3550,16 +3555,16 @@
     </row>
     <row r="16" spans="1:13" ht="24" customHeight="1">
       <c r="A16" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E16" s="57"/>
       <c r="F16" s="57"/>
@@ -3573,26 +3578,26 @@
     </row>
     <row r="17" spans="1:13" ht="24" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="57" t="s">
         <v>122</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>123</v>
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="58"/>
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
       <c r="J17" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K17" s="59"/>
       <c r="L17" s="57"/>
@@ -3600,26 +3605,26 @@
     </row>
     <row r="18" spans="1:13" ht="24" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="58"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="57"/>
@@ -3627,16 +3632,16 @@
     </row>
     <row r="19" spans="1:13" ht="24" customHeight="1">
       <c r="A19" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
@@ -3650,26 +3655,26 @@
     </row>
     <row r="20" spans="1:13" ht="24" customHeight="1">
       <c r="A20" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="57" t="s">
         <v>128</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>129</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="58"/>
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K20" s="59"/>
       <c r="L20" s="57"/>
@@ -3677,16 +3682,16 @@
     </row>
     <row r="21" spans="1:13" ht="24" customHeight="1">
       <c r="A21" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="57"/>
@@ -3700,16 +3705,16 @@
     </row>
     <row r="22" spans="1:13" ht="24" customHeight="1">
       <c r="A22" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="57"/>
       <c r="F22" s="57"/>
@@ -3720,21 +3725,21 @@
       <c r="K22" s="59"/>
       <c r="L22" s="57"/>
       <c r="M22" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="24" customHeight="1">
       <c r="A23" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="57"/>
@@ -3745,24 +3750,24 @@
       <c r="K23" s="59"/>
       <c r="L23" s="57"/>
       <c r="M23" s="57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="24" customHeight="1">
       <c r="A24" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="58"/>
@@ -3772,24 +3777,24 @@
       <c r="K24" s="59"/>
       <c r="L24" s="57"/>
       <c r="M24" s="57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="24" customHeight="1">
       <c r="A25" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="58"/>
@@ -3799,24 +3804,24 @@
       <c r="K25" s="59"/>
       <c r="L25" s="57"/>
       <c r="M25" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="24" customHeight="1">
       <c r="A26" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="58"/>
@@ -3826,77 +3831,77 @@
       <c r="K26" s="59"/>
       <c r="L26" s="57"/>
       <c r="M26" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="24" customHeight="1">
       <c r="A27" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>84</v>
-      </c>
       <c r="E27" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="58"/>
       <c r="H27" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
       <c r="K27" s="59"/>
       <c r="L27" s="57"/>
       <c r="M27" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="24" customHeight="1">
       <c r="A28" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="55" t="s">
         <v>83</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>84</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="57"/>
       <c r="G28" s="58"/>
       <c r="H28" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
       <c r="K28" s="59"/>
       <c r="L28" s="57"/>
       <c r="M28" s="57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="24" customHeight="1">
       <c r="A29" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="57"/>
@@ -3910,26 +3915,26 @@
     </row>
     <row r="30" spans="1:13" ht="24" customHeight="1">
       <c r="A30" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>84</v>
-      </c>
       <c r="E30" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="58"/>
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K30" s="59"/>
       <c r="L30" s="57"/>
@@ -3937,26 +3942,26 @@
     </row>
     <row r="31" spans="1:13" ht="24" customHeight="1">
       <c r="A31" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>84</v>
-      </c>
       <c r="E31" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="58"/>
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
       <c r="J31" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="57"/>
@@ -3964,26 +3969,26 @@
     </row>
     <row r="32" spans="1:13" ht="24" customHeight="1">
       <c r="A32" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>84</v>
-      </c>
       <c r="E32" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="57"/>
       <c r="G32" s="58"/>
       <c r="H32" s="57"/>
       <c r="I32" s="57"/>
       <c r="J32" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K32" s="59"/>
       <c r="L32" s="57"/>
@@ -3991,16 +3996,16 @@
     </row>
     <row r="33" spans="1:13" ht="24" customHeight="1">
       <c r="A33" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="55" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>84</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="57"/>
@@ -4008,7 +4013,7 @@
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
       <c r="J33" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="57"/>
@@ -4016,16 +4021,16 @@
     </row>
     <row r="34" spans="1:13" ht="24" customHeight="1">
       <c r="A34" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B34" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="55" t="s">
         <v>83</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>84</v>
       </c>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
@@ -4033,7 +4038,7 @@
       <c r="H34" s="57"/>
       <c r="I34" s="57"/>
       <c r="J34" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K34" s="59"/>
       <c r="L34" s="57"/>
@@ -4041,16 +4046,16 @@
     </row>
     <row r="35" spans="1:13" ht="24" customHeight="1">
       <c r="A35" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="57"/>
       <c r="F35" s="57"/>
@@ -4058,7 +4063,7 @@
       <c r="H35" s="57"/>
       <c r="I35" s="57"/>
       <c r="J35" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="57"/>
@@ -4066,16 +4071,16 @@
     </row>
     <row r="36" spans="1:13" ht="24" customHeight="1">
       <c r="A36" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E36" s="57"/>
       <c r="F36" s="57"/>
@@ -4083,7 +4088,7 @@
       <c r="H36" s="57"/>
       <c r="I36" s="57"/>
       <c r="J36" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K36" s="59"/>
       <c r="L36" s="57"/>

--- a/INPUT/test/example3.xlsx
+++ b/INPUT/test/example3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/INPUT/test2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Expansion/現在進行形/90_PublicGithub/MaiMLFileHandlingPtograms/Excel2DocandProtocolofMaiML/INPUT/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA684FF-AA53-8342-A21A-0EC4FD9EF5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29740946-2518-954F-AB5D-C34CC730B1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="139">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -655,6 +655,10 @@
   </si>
   <si>
     <t>PARENTID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UUID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2689,7 +2693,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3064,19 +3068,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="26.6640625" style="2"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="8" width="26.6640625" style="2"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3084,54 +3088,59 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3144,10 +3153,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
@@ -3159,12 +3168,12 @@
     <col min="8" max="9" width="20.1640625" style="50" customWidth="1"/>
     <col min="10" max="10" width="32.1640625" style="50" customWidth="1"/>
     <col min="11" max="11" width="38.33203125" style="51" customWidth="1"/>
-    <col min="12" max="13" width="25.1640625" style="50"/>
-    <col min="14" max="14" width="5.83203125" style="49" customWidth="1"/>
-    <col min="15" max="16384" width="25.1640625" style="49"/>
+    <col min="12" max="12" width="25.1640625" style="50"/>
+    <col min="13" max="13" width="5.83203125" style="49" customWidth="1"/>
+    <col min="14" max="16384" width="25.1640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1">
+    <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -3199,13 +3208,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1">
+    <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>67</v>
       </c>
@@ -3226,9 +3232,8 @@
       <c r="J2" s="57"/>
       <c r="K2" s="59"/>
       <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1">
       <c r="A3" s="56" t="s">
         <v>67</v>
       </c>
@@ -3253,9 +3258,8 @@
         <v>81</v>
       </c>
       <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1">
       <c r="A4" s="56" t="s">
         <v>67</v>
       </c>
@@ -3280,9 +3284,8 @@
         <v>80</v>
       </c>
       <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="56" t="s">
         <v>68</v>
       </c>
@@ -3303,9 +3306,8 @@
       <c r="J5" s="57"/>
       <c r="K5" s="59"/>
       <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1">
       <c r="A6" s="56" t="s">
         <v>68</v>
       </c>
@@ -3328,9 +3330,8 @@
       </c>
       <c r="K6" s="59"/>
       <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-    </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1">
       <c r="A7" s="56" t="s">
         <v>68</v>
       </c>
@@ -3351,9 +3352,8 @@
       <c r="J7" s="57"/>
       <c r="K7" s="59"/>
       <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-    </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1">
       <c r="A8" s="56" t="s">
         <v>68</v>
       </c>
@@ -3376,9 +3376,8 @@
       </c>
       <c r="K8" s="59"/>
       <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-    </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>68</v>
       </c>
@@ -3401,9 +3400,8 @@
       </c>
       <c r="K9" s="59"/>
       <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-    </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1">
       <c r="A10" s="56" t="s">
         <v>68</v>
       </c>
@@ -3428,9 +3426,8 @@
       </c>
       <c r="K10" s="59"/>
       <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-    </row>
-    <row r="11" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>68</v>
       </c>
@@ -3451,9 +3448,8 @@
       <c r="J11" s="57"/>
       <c r="K11" s="59"/>
       <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-    </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="56" t="s">
         <v>68</v>
       </c>
@@ -3476,9 +3472,8 @@
       </c>
       <c r="K12" s="59"/>
       <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-    </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="56" t="s">
         <v>68</v>
       </c>
@@ -3499,9 +3494,8 @@
       <c r="J13" s="57"/>
       <c r="K13" s="59"/>
       <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-    </row>
-    <row r="14" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="A14" s="56" t="s">
         <v>68</v>
       </c>
@@ -3524,9 +3518,8 @@
       </c>
       <c r="K14" s="59"/>
       <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-    </row>
-    <row r="15" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="15" spans="1:12" ht="24" customHeight="1">
       <c r="A15" s="56" t="s">
         <v>68</v>
       </c>
@@ -3551,9 +3544,8 @@
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-    </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>68</v>
       </c>
@@ -3574,9 +3566,8 @@
       <c r="J16" s="57"/>
       <c r="K16" s="59"/>
       <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-    </row>
-    <row r="17" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="17" spans="1:12" ht="24" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>68</v>
       </c>
@@ -3601,9 +3592,8 @@
       </c>
       <c r="K17" s="59"/>
       <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-    </row>
-    <row r="18" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="18" spans="1:12" ht="24" customHeight="1">
       <c r="A18" s="56" t="s">
         <v>68</v>
       </c>
@@ -3628,9 +3618,8 @@
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-    </row>
-    <row r="19" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="19" spans="1:12" ht="24" customHeight="1">
       <c r="A19" s="56" t="s">
         <v>68</v>
       </c>
@@ -3651,9 +3640,8 @@
       <c r="J19" s="57"/>
       <c r="K19" s="59"/>
       <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-    </row>
-    <row r="20" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="24" customHeight="1">
       <c r="A20" s="56" t="s">
         <v>68</v>
       </c>
@@ -3678,9 +3666,8 @@
       </c>
       <c r="K20" s="59"/>
       <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="21" spans="1:12" ht="24" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>68</v>
       </c>
@@ -3701,9 +3688,8 @@
       <c r="J21" s="57"/>
       <c r="K21" s="59"/>
       <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-    </row>
-    <row r="22" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="22" spans="1:12" ht="24" customHeight="1">
       <c r="A22" s="56" t="s">
         <v>69</v>
       </c>
@@ -3723,12 +3709,11 @@
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
       <c r="K22" s="59"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57" t="s">
+      <c r="L22" s="57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="24" customHeight="1">
+    <row r="23" spans="1:12" ht="24" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>69</v>
       </c>
@@ -3748,12 +3733,11 @@
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
       <c r="K23" s="59"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57" t="s">
+      <c r="L23" s="57" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="24" customHeight="1">
+    <row r="24" spans="1:12" ht="24" customHeight="1">
       <c r="A24" s="56" t="s">
         <v>69</v>
       </c>
@@ -3775,12 +3759,11 @@
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="K24" s="59"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57" t="s">
+      <c r="L24" s="57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="24" customHeight="1">
+    <row r="25" spans="1:12" ht="24" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>69</v>
       </c>
@@ -3802,12 +3785,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="K25" s="59"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57" t="s">
+      <c r="L25" s="57" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="24" customHeight="1">
+    <row r="26" spans="1:12" ht="24" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>69</v>
       </c>
@@ -3829,12 +3811,11 @@
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
       <c r="K26" s="59"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57" t="s">
+      <c r="L26" s="57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="24" customHeight="1">
+    <row r="27" spans="1:12" ht="24" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>69</v>
       </c>
@@ -3858,12 +3839,11 @@
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
       <c r="K27" s="59"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57" t="s">
+      <c r="L27" s="57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="24" customHeight="1">
+    <row r="28" spans="1:12" ht="24" customHeight="1">
       <c r="A28" s="56" t="s">
         <v>69</v>
       </c>
@@ -3885,12 +3865,11 @@
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
       <c r="K28" s="59"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57" t="s">
+      <c r="L28" s="57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="24" customHeight="1">
+    <row r="29" spans="1:12" ht="24" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>135</v>
       </c>
@@ -3911,9 +3890,8 @@
       <c r="J29" s="57"/>
       <c r="K29" s="59"/>
       <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-    </row>
-    <row r="30" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="30" spans="1:12" ht="24" customHeight="1">
       <c r="A30" s="56" t="s">
         <v>135</v>
       </c>
@@ -3938,9 +3916,8 @@
       </c>
       <c r="K30" s="59"/>
       <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-    </row>
-    <row r="31" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="31" spans="1:12" ht="24" customHeight="1">
       <c r="A31" s="56" t="s">
         <v>135</v>
       </c>
@@ -3960,14 +3937,13 @@
       <c r="G31" s="58"/>
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
-      <c r="J31" s="60" t="s">
-        <v>132</v>
+      <c r="J31" s="55" t="s">
+        <v>100</v>
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-    </row>
-    <row r="32" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:12" ht="24" customHeight="1">
       <c r="A32" s="56" t="s">
         <v>135</v>
       </c>
@@ -3992,9 +3968,8 @@
       </c>
       <c r="K32" s="59"/>
       <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-    </row>
-    <row r="33" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="33" spans="1:12" ht="24" customHeight="1">
       <c r="A33" s="56" t="s">
         <v>135</v>
       </c>
@@ -4012,14 +3987,13 @@
       <c r="G33" s="58"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
-      <c r="J33" s="55" t="s">
-        <v>100</v>
+      <c r="J33" s="60" t="s">
+        <v>132</v>
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-    </row>
-    <row r="34" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="34" spans="1:12" ht="24" customHeight="1">
       <c r="A34" s="56" t="s">
         <v>135</v>
       </c>
@@ -4042,9 +4016,8 @@
       </c>
       <c r="K34" s="59"/>
       <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-    </row>
-    <row r="35" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="35" spans="1:12" ht="24" customHeight="1">
       <c r="A35" s="56" t="s">
         <v>135</v>
       </c>
@@ -4067,9 +4040,8 @@
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-    </row>
-    <row r="36" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="36" spans="1:12" ht="24" customHeight="1">
       <c r="A36" s="56" t="s">
         <v>135</v>
       </c>
@@ -4092,7 +4064,6 @@
       </c>
       <c r="K36" s="59"/>
       <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
